--- a/mutual_fund_project/FINAL MASTERLIST-DEC30.xlsx
+++ b/mutual_fund_project/FINAL MASTERLIST-DEC30.xlsx
@@ -115,13 +115,13 @@
     <t xml:space="preserve">NIFTY 100 LOW VOLATILITY 30</t>
   </si>
   <si>
-    <t xml:space="preserve">Nifty 100 Quality 30 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">NIFTY 200 QUALITY 30 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nifty 50 Equal Weight </t>
+    <t xml:space="preserve">Nifty 100 Quality 30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NIFTY 200 QUALITY 30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nifty 50 Equal Weight</t>
   </si>
   <si>
     <t xml:space="preserve">NIFTY 50 Arbitrage</t>
@@ -133,10 +133,10 @@
     <t xml:space="preserve">NIFTY 10 YR BENCHMARK G-SEC</t>
   </si>
   <si>
-    <t xml:space="preserve">NIFTY 1D Rate </t>
-  </si>
-  <si>
-    <t xml:space="preserve">NIFTY 50 Value 20 </t>
+    <t xml:space="preserve">NIFTY 1D Rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NIFTY 50 Value 20</t>
   </si>
   <si>
     <t xml:space="preserve">Nifty India Consumption</t>
@@ -145,13 +145,13 @@
     <t xml:space="preserve">NIFTY MNC</t>
   </si>
   <si>
-    <t xml:space="preserve">Nifty PSU Bank </t>
+    <t xml:space="preserve">Nifty PSU Bank</t>
   </si>
   <si>
     <t xml:space="preserve">NIFTY Dividend Opportunities 50</t>
   </si>
   <si>
-    <t xml:space="preserve">Nifty Equity Savings </t>
+    <t xml:space="preserve">Nifty Equity Savings</t>
   </si>
   <si>
     <t xml:space="preserve">NIFTY COMPOSITE G-SEC</t>
@@ -160,7 +160,7 @@
     <t xml:space="preserve">S &amp; P BSE SENSEX</t>
   </si>
   <si>
-    <t xml:space="preserve">S&amp;P BSE 500 </t>
+    <t xml:space="preserve">S&amp;P BSE 500</t>
   </si>
   <si>
     <t xml:space="preserve">S&amp;P BSE 200</t>
@@ -172,7 +172,7 @@
     <t xml:space="preserve">S&amp;P BSE 250 Large Midcap 65:35</t>
   </si>
   <si>
-    <t xml:space="preserve">S&amp;P BSE 250 Large MidCap </t>
+    <t xml:space="preserve">S&amp;P BSE 250 Large MidCap</t>
   </si>
   <si>
     <t xml:space="preserve">S&amp;P BSE AllCap</t>
@@ -184,13 +184,13 @@
     <t xml:space="preserve">S&amp;P BSE 250 Small Cap</t>
   </si>
   <si>
-    <t xml:space="preserve">S&amp;P BSE Bharat 22 </t>
+    <t xml:space="preserve">S&amp;P BSE Bharat 22</t>
   </si>
   <si>
     <t xml:space="preserve">S&amp;P BSE Enhanced Value</t>
   </si>
   <si>
-    <t xml:space="preserve">S&amp;P BSE India Infrastructure Fund </t>
+    <t xml:space="preserve">S&amp;P BSE India Infrastructure Fund</t>
   </si>
   <si>
     <t xml:space="preserve">S&amp;P BSE Information Technology</t>
@@ -914,8 +914,8 @@
   </sheetPr>
   <dimension ref="A1:D1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A42" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B61" activeCellId="0" sqref="B61"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A32" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B54" activeCellId="0" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1326,7 +1326,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
         <v>600029</v>
       </c>
@@ -1340,7 +1340,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
         <v>600030</v>
       </c>
@@ -1452,7 +1452,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="n">
         <v>600038</v>
       </c>
@@ -1480,7 +1480,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="n">
         <v>600040</v>
       </c>
@@ -1522,7 +1522,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="n">
         <v>600043</v>
       </c>
@@ -1578,7 +1578,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="n">
         <v>600047</v>
       </c>
@@ -1634,7 +1634,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="n">
         <v>600051</v>
       </c>
@@ -1662,7 +1662,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="n">
         <v>600053</v>
       </c>
